--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf-indicateur.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf-indicateur.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-02T22:07:39+00:00</t>
+    <t>2025-12-02T20:15:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf-indicateur.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf-indicateur.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T20:15:58+00:00</t>
+    <t>2025-12-02T20:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf-indicateur.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf-indicateur.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T20:49:48+00:00</t>
+    <t>2025-12-02T21:43:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf-indicateur.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf-indicateur.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T14:08:03+00:00</t>
+    <t>2026-01-22T11:51:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf-indicateur.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf-indicateur.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T11:51:24+00:00</t>
+    <t>2026-01-22T13:05:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf-indicateur.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf-indicateur.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T13:05:19+00:00</t>
+    <t>2026-01-22T13:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -368,7 +368,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-uf-indicateur</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-uf-indicateur|2.2.0-ballot</t>
   </si>
 </sst>
 </file>
@@ -723,7 +723,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.8359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
